--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vertex42.com\Documents\VERTEX42\TEMPLATES\TEMPLATE - Lists\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="11355" windowHeight="10230"/>
   </bookViews>
@@ -18,17 +13,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$A$4:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ToDoList!$A:$G</definedName>
     <definedName name="pick">OFFSET(Lists!$C$1,1,0,MATCH(REPT("z",255),Lists!$C:$C),1)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ToDoList!$A:$G</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ToDoList!$4:$4</definedName>
     <definedName name="priority">OFFSET(Lists!$B$1,1,0,MATCH(REPT("z",255),Lists!$B:$B),1)</definedName>
     <definedName name="status">OFFSET(Lists!$A$1,1,0,MATCH(REPT("z",255),Lists!$A:$A),1)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ToDoList!$4:$4</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2014 by Vertex42.com"</definedName>
     <definedName name="vertex42_id" hidden="1">"to-do-list.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"To Do List Template"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -38,7 +33,7 @@
     <author>Vertex42</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>To Do List</t>
   </si>
@@ -353,12 +348,15 @@
   </si>
   <si>
     <t>https://www.vertex42.com/licensing/EULA_privateuse.html</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -749,7 +747,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="19">
@@ -902,7 +900,6 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="1"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
@@ -1541,10 +1538,10 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="24" customWidth="1"/>
@@ -1561,6 +1558,9 @@
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="G1" s="35" t="s">
         <v>57</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E5" s="43">
         <f ca="1">TODAY()+2</f>
-        <v>42763</v>
+        <v>43315</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>17</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E6" s="43">
         <f ca="1">TODAY()-2</f>
-        <v>42759</v>
+        <v>43311</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>18</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="E7" s="43">
         <f ca="1">TODAY()</f>
-        <v>42761</v>
+        <v>43313</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
@@ -2030,7 +2030,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="8" customWidth="1"/>
@@ -2230,7 +2230,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="56.375" customWidth="1"/>
